--- a/biology/Botanique/Acroceras_zizanioides/Acroceras_zizanioides.xlsx
+++ b/biology/Botanique/Acroceras_zizanioides/Acroceras_zizanioides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acroceras zizanioides est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire des régions tropicales d'Afrique, d'Asie et d'Amérique.
 Ce sont des plantes herbacées vivaces, aux tiges  (chaumes) décombantes, de 30 à 100 cm de long.
-Acroceras zizanioides est une mauvaise herbe largement répandue en Afrique dans les rizières de plaine et les zones humides aussi bien des régions de forêt que de savane[2].
-La plante est classée comme mauvaise herbe « principale » à Tobago et considérée comme une menace pour les forêts et zones humides des régions tropicales des États-Unis[3].
+Acroceras zizanioides est une mauvaise herbe largement répandue en Afrique dans les rizières de plaine et les zones humides aussi bien des régions de forêt que de savane.
+La plante est classée comme mauvaise herbe « principale » à Tobago et considérée comme une menace pour les forêts et zones humides des régions tropicales des États-Unis.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (23 juillet 2017)[4] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (23 juillet 2017) :
 Acroceras oryzoides Stapf
 Echinochloa zizanioides (Kunth) Roberty
 Panicum balbisianum Schult.
